--- a/Performance comparision between cp1 and cp2.xlsx
+++ b/Performance comparision between cp1 and cp2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>CP1</t>
   </si>
@@ -88,12 +88,24 @@
   <si>
     <t>linear time increment with respect to file size either.</t>
   </si>
+  <si>
+    <t xml:space="preserve">/* Programming Assignment 2 </t>
+  </si>
+  <si>
+    <t>* Author : Valerie Tan, Zhang Zhexian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ID : 1001191, 1001214 </t>
+  </si>
+  <si>
+    <t>* Date : 20/04/2016 */</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +127,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +153,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,19 +168,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,11 +364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2009949968"/>
-        <c:axId val="-2009949424"/>
+        <c:axId val="730637248"/>
+        <c:axId val="730629088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2009949968"/>
+        <c:axId val="730637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,12 +425,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009949424"/>
+        <c:crossAx val="730629088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2009949424"/>
+        <c:axId val="730629088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009949968"/>
+        <c:crossAx val="730637248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -729,11 +756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2009941264"/>
-        <c:axId val="-2119275936"/>
+        <c:axId val="730630720"/>
+        <c:axId val="730631264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2009941264"/>
+        <c:axId val="730630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,12 +817,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119275936"/>
+        <c:crossAx val="730631264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119275936"/>
+        <c:axId val="730631264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009941264"/>
+        <c:crossAx val="730630720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2344,7 +2371,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2537,6 +2564,12 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="N14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2548,6 +2581,12 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2557,6 +2596,12 @@
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="N16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2612,13 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="N17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2578,7 +2629,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2589,7 +2640,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2600,7 +2651,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2611,7 +2662,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2673,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="14:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="N22" s="2" t="s">
         <v>20</v>
       </c>
